--- a/NavigationMap.xlsx
+++ b/NavigationMap.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\robot-vision-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B88E597-9F07-4D7A-AC88-8D7EAE9A8886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4B600-A9B8-4F4A-9C54-C6D2069D59F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Members" sheetId="2" r:id="rId2"/>
+    <sheet name="UserStories" sheetId="4" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -54,18 +55,9 @@
     <t>User Story ID</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
     <t>Implementor</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Phạm Lĩnh</t>
   </si>
   <si>
@@ -91,13 +83,287 @@
   </si>
   <si>
     <t>Final Link</t>
+  </si>
+  <si>
+    <t>- Module camera xử lý ảnh</t>
+  </si>
+  <si>
+    <t>B. By-module Implemention Procedures</t>
+  </si>
+  <si>
+    <t>- Module cơ cấu chấp hành</t>
+  </si>
+  <si>
+    <t>- Tính chọn thiết bị</t>
+  </si>
+  <si>
+    <t>- Thiết kế 3D, 2D</t>
+  </si>
+  <si>
+    <t>- Lên list đặt hàng thiết bị, part gia công</t>
+  </si>
+  <si>
+    <t>- Kiểm tra, test khả năng hoạt động của module</t>
+  </si>
+  <si>
+    <t>- Thi công lắp ráp module</t>
+  </si>
+  <si>
+    <t>- Module xử lý dữ liệu hình ảnh và giao tiếp dữ liệu</t>
+  </si>
+  <si>
+    <t>- Xây dựng phương án phần cứng cho module camera xử lý ảnh</t>
+  </si>
+  <si>
+    <t>- Xây dựng phương án phần cứng cho module</t>
+  </si>
+  <si>
+    <t>- Hiệu chỉnh phần cứng module</t>
+  </si>
+  <si>
+    <t>- Kiểm tra, test khả năng hoạt động cơ bản của module</t>
+  </si>
+  <si>
+    <t>- Xây dựng software đọc dữ liệu đầu vào</t>
+  </si>
+  <si>
+    <t>- Xây dựng software xuất dữ liệu đầu ra</t>
+  </si>
+  <si>
+    <t>- Liệt kê các mục tiêu, tiêu chí cần đạt được, input/output cho module</t>
+  </si>
+  <si>
+    <t>- Xây dựng software xử lý dữ liệu, thực hiện vận động cơ cấu chấp hành</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Paperwork</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>QUY TẮC GIT</t>
+  </si>
+  <si>
+    <t>- Repo chính của dự án là [main]. 
+Đây là repo nơi commit tất cả những liệu được xác nhận bởi anh.
+Hùng và Lĩnh không được merge hay push lên repo [main] khi không được yêu cầu nhé.</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>FOLDER LÀM VIỆC CÁ NHÂN</t>
+  </si>
+  <si>
+    <t>BACKLOG  SHEET</t>
+  </si>
+  <si>
+    <t>- Sheet Backlog là nơi anh phân ra các công việc chúng ta cần làm. Hùng và Lĩnh vào xem kỹ và feedback nếu chưa hiểu hay thấy có vấn đề nhé</t>
+  </si>
+  <si>
+    <t>Ý NGHĨA CỦA CÁC FOLDER</t>
+  </si>
+  <si>
+    <t>QUY TRÌNH LÀM VIỆC, THỰC HIỆN NHIỆM VỤ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Hùng và Lĩnh sẽ làm việc lần lượt tại các Folder: HUNG WORKSPACE, LINH WORKSPACE và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chỉ đọc, không ghi vào các folder còn lại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nếu không có yêu cầu thêm</t>
+    </r>
+  </si>
+  <si>
+    <t>US-07</t>
+  </si>
+  <si>
+    <t>Timelines</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Thanh Hùng, Phạm Lĩnh</t>
+  </si>
+  <si>
+    <t>- Nghiên cứu phần cứng có sẵn</t>
+  </si>
+  <si>
+    <t>- Tái dựng 3D</t>
+  </si>
+  <si>
+    <t>General Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Folder [0.Documents] chứa các tài liệu quan trọng của dự án mà anh bỏ vào.
+- Folder [1. Mechanical Design] chứa các dữ liệu về thiết kế cơ khí 
+- Folder [2. Electrical Design] chứa các dữ liệu về thiết kế điện
+- Folder [3. Equipments] chứa các dữ liệu về thiết bị dùng trong hệ thống
+- Folder [4. Computer Vision] chứa các dữ liệu về xử lý ảnh
+- Folder [7. Output] chứa các dữ liệu hoàn thành của dự án. </t>
+  </si>
+  <si>
+    <r>
+      <t>- Anh yêu cầu cụ thể công việc trên trello.có gắn nhãn US-
+- Đối với các công việc không có gắn nhãn US-, các em chỉ cần thực hiện xong và Drag vào panel Review Request nhé.
+- Còn đối với các công việc có gắn nhãn US-, các em thực hiện pull origin main để cập nhật dữ liệu mới nhất từ main
+- Các em vào tra trong bảng UserStories xem nhiệm vụ là gì
+- Thực hiện tạo git branch với convention là US-XX-do-something (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CASE sensitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) từ branch main.
+- Vào trong folder cá nhân của từng bạn, tạo thư mục có tên của US và làm việc trong này
+- Stash, Commit, Push lên remote branch và Drag công việc trên trello của các em vào panel Review Request để anh review nhé</t>
+    </r>
+  </si>
+  <si>
+    <t>- Học nhanh SolidWorks</t>
+  </si>
+  <si>
+    <t>- Phác thảo tay mô hình module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vẽ part </t>
+  </si>
+  <si>
+    <t>- Vẽ Assembly</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>- Lập list tiêu chí chọn thiết bị</t>
+  </si>
+  <si>
+    <t>- Chọn ít nhất 3 dòng sản phẩm theo yêu cầu và cho điểm cho từng option</t>
+  </si>
+  <si>
+    <t>- So sánh và chọn ra 1 sản phẩm đáp ứng tốt nhất</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>Tổng hợp các nội dung mua sắm</t>
+  </si>
+  <si>
+    <t>Viết đề xuất mua sắm</t>
+  </si>
+  <si>
+    <t>US-08</t>
+  </si>
+  <si>
+    <t>Liệt kê các mục tiêu, tiêu chí cần đạt được, input/output cho module camera</t>
+  </si>
+  <si>
+    <t>Liệt kê các mục tiêu, tiêu chí cần đạt được, input/output cho module xử lý hình ảnh</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Working Status</t>
+  </si>
+  <si>
+    <t>Review Status</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>not ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +387,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -169,7 +480,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,25 +807,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="16">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="16">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="16">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C5178-D2E7-4CD9-84FE-08FA189D1978}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -482,22 +939,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -513,11 +970,16 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -526,17 +988,18 @@
         <v>US-02</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="22"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -545,17 +1008,20 @@
         <v>US-03</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -564,13 +1030,14 @@
         <v>US-04</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -579,76 +1046,97 @@
         <v>US-05</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($A7 &lt;&gt; "", _xlfn.CONCAT("US-0", $A7), "")</f>
         <v>US-06</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="str">
+        <v>7</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="str">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="str">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="str">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="str">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="str">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -715,52 +1203,525 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C5372610-0A82-4044-9B43-2D5CE3E31D88}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{516B877E-4899-4525-A5D8-D3FB4F4D7EE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C738569E-BF2E-47B1-B66F-F0812277381E}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F4120E-8C3C-4116-95A7-810E3B33E643}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B26" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>3</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NavigationMap.xlsx
+++ b/NavigationMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\robot-vision-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kratosth\code\Capstone\robot-vision-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4B600-A9B8-4F4A-9C54-C6D2069D59F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953EE74A-70A4-49B9-AAAB-4C869E5182D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>not ok</t>
+  </si>
+  <si>
+    <t>24/03/2023</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>28/3/2023</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
   </si>
 </sst>
 </file>
@@ -454,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -480,9 +492,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -509,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -525,6 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,15 +828,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -835,70 +850,70 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>45008</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>45009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>45010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>45011</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -912,23 +927,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C5178-D2E7-4CD9-84FE-08FA189D1978}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="18.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="91" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -954,7 +969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -972,14 +987,14 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -993,13 +1008,13 @@
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1013,15 +1028,15 @@
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1035,9 +1050,9 @@
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1051,9 +1066,9 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1067,12 +1082,12 @@
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1100,103 +1115,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1216,31 +1231,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F4120E-8C3C-4116-95A7-810E3B33E643}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1251,19 +1267,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1272,12 +1288,15 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1.2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1286,12 +1305,15 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1.3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1301,47 +1323,59 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="E8" s="23">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="E10" s="23">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="23">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1.4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1350,40 +1384,52 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="E13" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1.5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1392,32 +1438,35 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="E18" s="23">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>1.6</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1427,11 +1476,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1.7</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1441,11 +1490,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>1.8</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1455,22 +1504,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>2</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2.1</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1479,12 +1528,15 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1493,12 +1545,15 @@
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1507,12 +1562,15 @@
       <c r="D29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="23">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2.4</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1521,12 +1579,15 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>2.5</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1535,12 +1596,15 @@
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>2.6</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1550,11 +1614,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2.7</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1564,11 +1628,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>2.8</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1578,11 +1642,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>2.9</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1592,11 +1656,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1606,22 +1670,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>3</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3.1</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1631,11 +1695,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3.2</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1645,11 +1709,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>3.3</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1659,11 +1723,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>3.7</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1673,11 +1737,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>3.8</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1687,11 +1751,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>3.9</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1701,11 +1765,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
